--- a/第一次提交物-未命名小组/小组名单及初步计划-未命名小组/未命名小组-2017级分组考勤名单 - 2020.xlsx
+++ b/第一次提交物-未命名小组/小组名单及初步计划-未命名小组/未命名小组-2017级分组考勤名单 - 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ\QQ\565346159\FileRecv\MobileFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\伽马\Unnamed\第一次提交物-未命名小组\小组名单及初步计划-未命名小组\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F2086-36D4-447B-8094-13AA618A3509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2F597C-617C-4A11-9CA6-B74EBA498E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤名单" sheetId="1" r:id="rId1"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>数据分析</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>邓丽婷</t>
   </si>
   <si>
@@ -204,6 +200,10 @@
   </si>
   <si>
     <t>数据分析</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算攻击过程</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -862,6 +862,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,30 +899,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,26 +1207,26 @@
   <dimension ref="A1:Q238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="36.6640625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="36.625" style="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="36.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -1317,7 +1317,7 @@
         <v>27</v>
       </c>
       <c r="L2" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1360,7 +1360,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1443,10 +1443,10 @@
         <v>35</v>
       </c>
       <c r="K5" s="89" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L5" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1474,22 +1474,22 @@
         <v>1120170462</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5">
         <v>18801109626</v>
       </c>
       <c r="J6" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="L6" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4370,23 +4370,23 @@
       <selection activeCell="A2" sqref="A2:Q219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="36.6640625" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" hidden="1"/>
-    <col min="5" max="5" width="10.5" style="1" hidden="1"/>
-    <col min="6" max="6" width="12.25" style="1" hidden="1"/>
-    <col min="7" max="7" width="5.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" hidden="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="1" hidden="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
-    <col min="13" max="17" width="11.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="36.625" style="1"/>
+    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" hidden="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" hidden="1"/>
+    <col min="6" max="6" width="12.21875" style="1" hidden="1"/>
+    <col min="7" max="7" width="5.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" hidden="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="1" hidden="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13" max="17" width="11.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="36.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" customHeight="1">
@@ -4690,7 +4690,7 @@
     </row>
     <row r="15" spans="1:17" ht="24" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="98"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="97"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1">
       <c r="A29" s="19"/>
-      <c r="B29" s="99"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1">
       <c r="A30" s="23"/>
-      <c r="B30" s="100"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -5428,7 +5428,7 @@
     <row r="54" spans="1:17" ht="24" customHeight="1">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="109"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -5447,7 +5447,7 @@
     <row r="55" spans="1:17" ht="24" customHeight="1">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
-      <c r="C55" s="110"/>
+      <c r="C55" s="105"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -5542,7 +5542,7 @@
     <row r="60" spans="1:17" ht="24" customHeight="1">
       <c r="A60" s="28"/>
       <c r="B60" s="29"/>
-      <c r="C60" s="103"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="30"/>
       <c r="E60" s="29"/>
       <c r="F60" s="31"/>
@@ -5561,7 +5561,7 @@
     <row r="61" spans="1:17" ht="24" customHeight="1">
       <c r="A61" s="28"/>
       <c r="B61" s="29"/>
-      <c r="C61" s="104"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="30"/>
       <c r="E61" s="29"/>
       <c r="F61" s="31"/>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="73" spans="1:17" ht="24" customHeight="1">
       <c r="A73" s="29"/>
-      <c r="B73" s="101"/>
+      <c r="B73" s="109"/>
       <c r="C73" s="29"/>
       <c r="D73" s="74"/>
       <c r="E73" s="29"/>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="74" spans="1:17" ht="24" customHeight="1">
       <c r="A74" s="29"/>
-      <c r="B74" s="102"/>
+      <c r="B74" s="110"/>
       <c r="C74" s="29"/>
       <c r="D74" s="74"/>
       <c r="E74" s="29"/>
@@ -6234,7 +6234,7 @@
     <row r="103" spans="1:17" ht="24" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="107"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -6253,7 +6253,7 @@
     <row r="104" spans="1:17" ht="24" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="108"/>
+      <c r="C104" s="103"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -6475,7 +6475,7 @@
     <row r="119" spans="1:17" ht="24" customHeight="1">
       <c r="A119" s="79"/>
       <c r="B119" s="80"/>
-      <c r="C119" s="105"/>
+      <c r="C119" s="100"/>
       <c r="D119" s="73"/>
       <c r="E119" s="81"/>
       <c r="F119" s="81"/>
@@ -6494,7 +6494,7 @@
     <row r="120" spans="1:17" ht="24" customHeight="1">
       <c r="A120" s="79"/>
       <c r="B120" s="81"/>
-      <c r="C120" s="106"/>
+      <c r="C120" s="101"/>
       <c r="D120" s="73"/>
       <c r="E120" s="81"/>
       <c r="F120" s="81"/>
@@ -7550,7 +7550,7 @@
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
     </row>
-    <row r="183" spans="1:17" ht="13.15" customHeight="1"/>
+    <row r="183" spans="1:17" ht="13.2" customHeight="1"/>
     <row r="184" spans="1:17" ht="24" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
@@ -7646,7 +7646,7 @@
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
     </row>
-    <row r="189" spans="1:17" ht="13.9" customHeight="1"/>
+    <row r="189" spans="1:17" ht="13.95" customHeight="1"/>
     <row r="190" spans="1:17" ht="24" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="96"/>
@@ -8143,6 +8143,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C145:C146"/>
     <mergeCell ref="C152:C153"/>
@@ -8157,16 +8167,6 @@
     <mergeCell ref="C127:C128"/>
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B73:B74"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.25138888888888899" right="0.25138888888888899" top="0.75138888888888899" bottom="0.75138888888888899" header="0.29861111111111099" footer="0.29861111111111099"/>

--- a/第一次提交物-未命名小组/小组名单及初步计划-未命名小组/未命名小组-2017级分组考勤名单 - 2020.xlsx
+++ b/第一次提交物-未命名小组/小组名单及初步计划-未命名小组/未命名小组-2017级分组考勤名单 - 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\伽马\Unnamed\第一次提交物-未命名小组\小组名单及初步计划-未命名小组\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2F597C-617C-4A11-9CA6-B74EBA498E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FFDE55-C456-4280-83C6-FBC772F8D175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>指导教师</t>
   </si>
@@ -118,9 +118,6 @@
     <t>835062845@qq.com</t>
   </si>
   <si>
-    <t>软件系统测试</t>
-  </si>
-  <si>
     <t>张海汀</t>
   </si>
   <si>
@@ -139,16 +136,10 @@
     </r>
   </si>
   <si>
-    <t>组长</t>
-  </si>
-  <si>
     <t>刘奕龙</t>
   </si>
   <si>
     <t>269989539@qq.com</t>
-  </si>
-  <si>
-    <t>图形化开发</t>
   </si>
   <si>
     <t>唐永翔</t>
@@ -187,10 +178,6 @@
     <t>邓丽婷</t>
   </si>
   <si>
-    <t>程序员</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>08111702</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -199,12 +186,34 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>数据分析</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>后端</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>前端</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>程序员</t>
+  </si>
+  <si>
+    <t>数据处理</t>
+  </si>
+  <si>
+    <t>测试程序员</t>
+  </si>
+  <si>
+    <t>图形化界面</t>
   </si>
   <si>
     <t>计算攻击过程</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -862,6 +871,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,21 +908,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1206,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6640625" defaultRowHeight="12"/>
@@ -1302,22 +1311,22 @@
         <v>1120171123</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1">
         <v>13601230433</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L2" s="95" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1357,10 +1366,10 @@
         <v>23</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L3" s="95" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1388,22 +1397,22 @@
         <v>1120170647</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" s="8">
         <v>15910221587</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L4" s="95" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1431,22 +1440,22 @@
         <v>1120173003</v>
       </c>
       <c r="G5" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="92" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>34</v>
       </c>
       <c r="I5" s="8">
         <v>19955857229</v>
       </c>
       <c r="J5" s="93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K5" s="89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L5" s="95" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1474,22 +1483,22 @@
         <v>1120170462</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I6" s="5">
         <v>18801109626</v>
       </c>
       <c r="J6" s="93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="95" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4690,7 +4699,7 @@
     </row>
     <row r="15" spans="1:17" ht="24" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="106"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="97"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -4956,7 +4965,7 @@
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1">
       <c r="A29" s="19"/>
-      <c r="B29" s="107"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -4975,7 +4984,7 @@
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1">
       <c r="A30" s="23"/>
-      <c r="B30" s="108"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -5428,7 +5437,7 @@
     <row r="54" spans="1:17" ht="24" customHeight="1">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="104"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -5447,7 +5456,7 @@
     <row r="55" spans="1:17" ht="24" customHeight="1">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
-      <c r="C55" s="105"/>
+      <c r="C55" s="110"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -5542,7 +5551,7 @@
     <row r="60" spans="1:17" ht="24" customHeight="1">
       <c r="A60" s="28"/>
       <c r="B60" s="29"/>
-      <c r="C60" s="98"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="30"/>
       <c r="E60" s="29"/>
       <c r="F60" s="31"/>
@@ -5561,7 +5570,7 @@
     <row r="61" spans="1:17" ht="24" customHeight="1">
       <c r="A61" s="28"/>
       <c r="B61" s="29"/>
-      <c r="C61" s="99"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="30"/>
       <c r="E61" s="29"/>
       <c r="F61" s="31"/>
@@ -5750,7 +5759,7 @@
     </row>
     <row r="73" spans="1:17" ht="24" customHeight="1">
       <c r="A73" s="29"/>
-      <c r="B73" s="109"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="29"/>
       <c r="D73" s="74"/>
       <c r="E73" s="29"/>
@@ -5769,7 +5778,7 @@
     </row>
     <row r="74" spans="1:17" ht="24" customHeight="1">
       <c r="A74" s="29"/>
-      <c r="B74" s="110"/>
+      <c r="B74" s="102"/>
       <c r="C74" s="29"/>
       <c r="D74" s="74"/>
       <c r="E74" s="29"/>
@@ -6234,7 +6243,7 @@
     <row r="103" spans="1:17" ht="24" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="102"/>
+      <c r="C103" s="107"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -6253,7 +6262,7 @@
     <row r="104" spans="1:17" ht="24" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="103"/>
+      <c r="C104" s="108"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -6475,7 +6484,7 @@
     <row r="119" spans="1:17" ht="24" customHeight="1">
       <c r="A119" s="79"/>
       <c r="B119" s="80"/>
-      <c r="C119" s="100"/>
+      <c r="C119" s="105"/>
       <c r="D119" s="73"/>
       <c r="E119" s="81"/>
       <c r="F119" s="81"/>
@@ -6494,7 +6503,7 @@
     <row r="120" spans="1:17" ht="24" customHeight="1">
       <c r="A120" s="79"/>
       <c r="B120" s="81"/>
-      <c r="C120" s="101"/>
+      <c r="C120" s="106"/>
       <c r="D120" s="73"/>
       <c r="E120" s="81"/>
       <c r="F120" s="81"/>
@@ -8143,16 +8152,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B73:B74"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C145:C146"/>
     <mergeCell ref="C152:C153"/>
@@ -8167,6 +8166,16 @@
     <mergeCell ref="C127:C128"/>
     <mergeCell ref="C131:C132"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B73:B74"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.25138888888888899" right="0.25138888888888899" top="0.75138888888888899" bottom="0.75138888888888899" header="0.29861111111111099" footer="0.29861111111111099"/>

--- a/第一次提交物-未命名小组/小组名单及初步计划-未命名小组/未命名小组-2017级分组考勤名单 - 2020.xlsx
+++ b/第一次提交物-未命名小组/小组名单及初步计划-未命名小组/未命名小组-2017级分组考勤名单 - 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\伽马\Unnamed\第一次提交物-未命名小组\小组名单及初步计划-未命名小组\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FFDE55-C456-4280-83C6-FBC772F8D175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC83315E-8A91-41FB-B574-FBAD821416CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,16 +201,16 @@
     <t>算法</t>
   </si>
   <si>
+    <t>前端工程师</t>
+  </si>
+  <si>
+    <t>测试工程师</t>
+  </si>
+  <si>
     <t>程序员</t>
   </si>
   <si>
     <t>数据处理</t>
-  </si>
-  <si>
-    <t>测试程序员</t>
-  </si>
-  <si>
-    <t>图形化界面</t>
   </si>
   <si>
     <t>计算攻击过程</t>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:Q238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.6640625" defaultRowHeight="12"/>
@@ -1326,7 +1326,7 @@
         <v>36</v>
       </c>
       <c r="L2" s="95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1369,7 +1369,7 @@
         <v>37</v>
       </c>
       <c r="L3" s="95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1412,7 +1412,7 @@
         <v>38</v>
       </c>
       <c r="L4" s="95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1455,7 +1455,7 @@
         <v>39</v>
       </c>
       <c r="L5" s="95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
